--- a/SP_Sklad/Rep/nakladnaDeboning.xlsx
+++ b/SP_Sklad/Rep/nakladnaDeboning.xlsx
@@ -60,7 +60,7 @@
     <t>Статус:</t>
   </si>
   <si>
-    <t>Актуальний</t>
+    <t>Закінчено виробництво</t>
   </si>
   <si>
     <t>Вихід:</t>
@@ -1092,8 +1092,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="str">
-        <f>IF(D6 &lt; "","","")</f>
-        <v/>
+        <f>IF(D6 &lt; "13.09.2016 21:19:08","13.09.2016 21:19:08","")</f>
+        <v>13.09.2016 21:19:08</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="15"/>
